--- a/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
+++ b/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
+++ b/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
+++ b/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>FRDiagnosticReportDocument.code</t>
+  </si>
+  <si>
+    <t>FRDiagnosticReportDocument.status</t>
   </si>
   <si>
     <t>FRDiagnosticReportDocument.effective[x]</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,7 +671,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -681,7 +684,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -694,7 +697,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -707,7 +710,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -717,6 +720,19 @@
         <v>55</v>
       </c>
       <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
+++ b/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
+++ b/main/ig/FRDiagnosticReportLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
